--- a/input_cancer/time 2008 001_Results.xlsx
+++ b/input_cancer/time 2008 001_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plateau/Documents/GitHub/PanoramiR/input_cancer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1798418-9895-4E4D-BB41-2C0803CEC503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF44CF-08F1-724C-B194-BA392206859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-4560" windowWidth="25600" windowHeight="17400" xr2:uid="{E57038E1-2B3C-934D-85A4-CC33E84884E6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{E57038E1-2B3C-934D-85A4-CC33E84884E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1850,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45EA767-7635-0047-AE1C-03C8AAE5C64A}">
   <dimension ref="A1:AE431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
